--- a/Staging Data/General Layouts.xlsx
+++ b/Staging Data/General Layouts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jordany\Desktop\Active Projects\Unified Data Framework\Data Staging\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jordany\Desktop\Active Projects\Unified Data Framework\Staging Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90668E6-D21A-4AFC-94F5-5523E25550E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EA844C-B733-4C1B-814E-DA352DFA07D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="3" activeTab="5" xr2:uid="{BE7E8A60-4B91-4680-9E8B-21B538B09795}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{BE7E8A60-4B91-4680-9E8B-21B538B09795}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Staging" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="99">
   <si>
     <t>Finder Number</t>
   </si>
@@ -226,12 +226,6 @@
     <t>Email Address</t>
   </si>
   <si>
-    <t>Keycode (Source Code)</t>
-  </si>
-  <si>
-    <t>SourceCodeID (Client Source)</t>
-  </si>
-  <si>
     <t>Address3</t>
   </si>
   <si>
@@ -263,6 +257,87 @@
   </si>
   <si>
     <t>ClientSource</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>BatchFolderPath</t>
+  </si>
+  <si>
+    <t>CheckDate</t>
+  </si>
+  <si>
+    <t>Check_Account</t>
+  </si>
+  <si>
+    <t>Check_Routing</t>
+  </si>
+  <si>
+    <t>ClientCode</t>
+  </si>
+  <si>
+    <t>CreditCard_Exp</t>
+  </si>
+  <si>
+    <t>CreditCard_Number</t>
+  </si>
+  <si>
+    <t>CreditCard_Type</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Image_Doc</t>
+  </si>
+  <si>
+    <t>Image_Check</t>
+  </si>
+  <si>
+    <t>Image_DocPath</t>
+  </si>
+  <si>
+    <t>Image_CheckPath</t>
+  </si>
+  <si>
+    <t>ImportedFilename</t>
+  </si>
+  <si>
+    <t>Override</t>
+  </si>
+  <si>
+    <t>SpouseFirst</t>
+  </si>
+  <si>
+    <t>SpouseTitle</t>
+  </si>
+  <si>
+    <t>SpouseMiddle</t>
+  </si>
+  <si>
+    <t>SpouseLast</t>
+  </si>
+  <si>
+    <t>SpouseSuffix</t>
+  </si>
+  <si>
+    <t>SpouseFullName</t>
+  </si>
+  <si>
+    <t>RecordUUID</t>
+  </si>
+  <si>
+    <t>ZZAccountCreated</t>
+  </si>
+  <si>
+    <t>zz_AccountModified</t>
+  </si>
+  <si>
+    <t>zz_dateTimeCreated</t>
+  </si>
+  <si>
+    <t>zz_DateTimeModified</t>
   </si>
 </sst>
 </file>
@@ -643,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EDFF70-F036-481C-B0A3-CFE2CFE9FB37}">
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:BN8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,9 +755,12 @@
     <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,7 +843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -845,7 +923,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -922,7 +1000,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -1020,15 +1098,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -1058,7 +1136,7 @@
         <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N8" t="s">
         <v>14</v>
@@ -1073,13 +1151,13 @@
         <v>17</v>
       </c>
       <c r="R8" t="s">
+        <v>62</v>
+      </c>
+      <c r="S8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T8" t="s">
         <v>64</v>
-      </c>
-      <c r="S8" t="s">
-        <v>65</v>
-      </c>
-      <c r="T8" t="s">
-        <v>66</v>
       </c>
       <c r="U8" t="s">
         <v>60</v>
@@ -1106,7 +1184,7 @@
         <v>35</v>
       </c>
       <c r="AC8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AD8" t="s">
         <v>44</v>
@@ -1115,7 +1193,7 @@
         <v>45</v>
       </c>
       <c r="AF8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AG8" t="s">
         <v>24</v>
@@ -1125,6 +1203,90 @@
       </c>
       <c r="AI8" t="s">
         <v>26</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>91</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1151,12 +1313,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1165,17 +1327,17 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1528,7 +1690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F587E3-92EB-44D8-82A6-7D3A7C0BAAAD}">
   <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
